--- a/medicine/Sexualité et sexologie/Les_Rencontres_d'après_minuit/Les_Rencontres_d'après_minuit.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Rencontres_d'après_minuit/Les_Rencontres_d'après_minuit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Rencontres_d%27apr%C3%A8s_minuit</t>
+          <t>Les_Rencontres_d'après_minuit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rencontres d'après minuit est un film dramatique français écrit et réalisé par Yann Gonzalez et sorti en 2013.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Rencontres_d%27apr%C3%A8s_minuit</t>
+          <t>Les_Rencontres_d'après_minuit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au milieu de la nuit, Ali et Matthias organisent une orgie. 
 Leurs invités seront la Star, l'Adolescent, l'Etalon et la Chienne.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Rencontres_d%27apr%C3%A8s_minuit</t>
+          <t>Les_Rencontres_d'après_minuit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre original : Les Rencontres d'après minuit
@@ -562,7 +578,7 @@
 Sociétés de production : Sedna Films et Garidi Films
 Participation à la production : Procirep, Angoa-Agicoa, CNAP, le CNC et la Région Pays-de-la-Loire
 Société de distribution : Potemkine (France)
-Budget : 1.32M€[1]
+Budget : 1.32M€
 Pays d'origine :  France
 Langue originale : français
 Format : couleur - 1,66:1 - 35 mm
@@ -581,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Rencontres_d%27apr%C3%A8s_minuit</t>
+          <t>Les_Rencontres_d'après_minuit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kate Moran : Ali
@@ -653,7 +671,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Rencontres_d%27apr%C3%A8s_minuit</t>
+          <t>Les_Rencontres_d'après_minuit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -673,11 +691,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tournage
-Le long-métrage a été tourné dans une maison à Beaupréau (près de Cholet - Maine-et-Loire) puis dans les studios d'Épinay-sur-Seine.
-Quelques scènes ont été tournées en Loire-Atlantique (plage de Saint-Marc-sur-Mer) et dans le Val-d'Oise (Sanatorium d'Aincourt) à Aincourt (scènes de l'immeuble extérieur)[2].
-Bande originale
-La bande originale du film a été composée par le groupe M83. Anthony Gonzalez, cofondateur du groupe, est le frère du réalisateur Yann Gonzalez.
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le long-métrage a été tourné dans une maison à Beaupréau (près de Cholet - Maine-et-Loire) puis dans les studios d'Épinay-sur-Seine.
+Quelques scènes ont été tournées en Loire-Atlantique (plage de Saint-Marc-sur-Mer) et dans le Val-d'Oise (Sanatorium d'Aincourt) à Aincourt (scènes de l'immeuble extérieur).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Rencontres_d'après_minuit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Rencontres_d%27apr%C3%A8s_minuit</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La bande originale du film a été composée par le groupe M83. Anthony Gonzalez, cofondateur du groupe, est le frère du réalisateur Yann Gonzalez.
 L'Inconnu — 1:56
 Nous — 1:36
 Vision — 1:55
@@ -696,44 +754,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_Rencontres_d%27apr%C3%A8s_minuit</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Rencontres_d%27apr%C3%A8s_minuit</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Box-office</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Source : Observatoire Européen de l'Audiovisuel[3]
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Les_Rencontres_d%27apr%C3%A8s_minuit</t>
+          <t>Les_Rencontres_d'après_minuit</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -748,10 +775,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Source : Observatoire Européen de l'Audiovisuel
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Rencontres_d'après_minuit</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Rencontres_d%27apr%C3%A8s_minuit</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Festival de Cannes 2013 :
 Séances spéciales, sélection « Semaine de la critique »
